--- a/Results.xlsx
+++ b/Results.xlsx
@@ -19,31 +19,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Pokretanje</t>
-  </si>
-  <si>
-    <t>Bez optimizacije</t>
   </si>
   <si>
     <t>Broj elemenata</t>
   </si>
   <si>
-    <t>10'000'000</t>
+    <t>Bez optimizacije [ms]</t>
   </si>
   <si>
-    <t>SSE2 + dodatne optimizacije</t>
+    <t>SSE2 [ms]</t>
   </si>
   <si>
-    <t>Prosjek</t>
+    <t>OpenMP [ms]</t>
+  </si>
+  <si>
+    <t>OpenMP + SSE2 [ms]</t>
+  </si>
+  <si>
+    <t>Prosjek [ms]</t>
+  </si>
+  <si>
+    <t>100'000'000</t>
+  </si>
+  <si>
+    <t>U slučaju kada ne koritimo optimizacije imamo najlošije performanse (očekivano). Korištenjem SSE instrukcija i OpenMP zasebno, dobijamo znatno kraće vrijeme izvršavanja, a kombinovanjem oba ova rješenja dobijamo najkraće vrijeme izvršavanja.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,18 +61,128 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Bahnschrift"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -96,10 +215,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -107,31 +277,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -148,6 +328,1318 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Standard</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1800.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1740.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1696.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1629.28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1702.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1753.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1732.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1697.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1703.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1702.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B2E-489B-B608-80EC6904F5D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SSE2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>381.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>382.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>379.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>385.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>380.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>382.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>378.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>382.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>374.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B2E-489B-B608-80EC6904F5D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>OpenMP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>578.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>572.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>572.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>572.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>572.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>572.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>572.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>572.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>572.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>574.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7B2E-489B-B608-80EC6904F5D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>OpenMP+SSE2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>192.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>191.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>193.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>190.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>190.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>189.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>194.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7B2E-489B-B608-80EC6904F5D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="121030144"/>
+        <c:axId val="121032640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="121030144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121032640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121032640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121030144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F24"/>
+  <dimension ref="B3:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,206 +1921,345 @@
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="21">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D5" s="22">
+        <v>1800.9</v>
+      </c>
+      <c r="E5" s="23">
+        <v>381.8</v>
+      </c>
+      <c r="F5" s="24">
+        <v>578.1</v>
+      </c>
+      <c r="G5" s="25">
+        <v>192.3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="C6" s="21">
+        <v>2</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1740.94</v>
+      </c>
+      <c r="E6" s="23">
+        <v>382.19</v>
+      </c>
+      <c r="F6" s="24">
+        <v>572.27</v>
+      </c>
+      <c r="G6" s="25">
+        <v>191.24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
+      <c r="C7" s="21">
+        <v>3</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1696.63</v>
+      </c>
+      <c r="E7" s="23">
+        <v>379.55</v>
+      </c>
+      <c r="F7" s="24">
+        <v>572.71</v>
+      </c>
+      <c r="G7" s="25">
+        <v>190.15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="C8" s="21">
         <v>4</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>4150.68</v>
-      </c>
-      <c r="E5" s="6">
-        <v>3952.61</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>4129.13</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4000.2</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6">
-        <v>4044.01</v>
-      </c>
-      <c r="E7" s="6">
-        <v>3954.77</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="11">
-        <v>3967.97</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6">
+      <c r="D8" s="22">
+        <v>1629.28</v>
+      </c>
+      <c r="E8" s="23">
+        <v>374.69</v>
+      </c>
+      <c r="F8" s="24">
+        <v>572.4</v>
+      </c>
+      <c r="G8" s="25">
+        <v>193.98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="21">
         <v>5</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="11">
-        <v>3958.13</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6">
+      <c r="D9" s="22">
+        <v>1702.25</v>
+      </c>
+      <c r="E9" s="23">
+        <v>385.43</v>
+      </c>
+      <c r="F9" s="24">
+        <v>572.77</v>
+      </c>
+      <c r="G9" s="25">
+        <v>190.18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="21">
         <v>6</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="11">
-        <v>3976.27</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6">
+      <c r="D10" s="22">
+        <v>1753.56</v>
+      </c>
+      <c r="E10" s="23">
+        <v>380.48</v>
+      </c>
+      <c r="F10" s="24">
+        <v>572.79999999999995</v>
+      </c>
+      <c r="G10" s="25">
+        <v>190.93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="21">
         <v>7</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="11">
-        <v>3970.04</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6">
+      <c r="D11" s="22">
+        <v>1732.83</v>
+      </c>
+      <c r="E11" s="23">
+        <v>382.28</v>
+      </c>
+      <c r="F11" s="24">
+        <v>572.35</v>
+      </c>
+      <c r="G11" s="25">
+        <v>192.51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="C12" s="21">
         <v>8</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6">
+      <c r="D12" s="22">
+        <v>1697.02</v>
+      </c>
+      <c r="E12" s="23">
+        <v>378.81</v>
+      </c>
+      <c r="F12" s="24">
+        <v>572.77</v>
+      </c>
+      <c r="G12" s="25">
+        <v>190.73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="21">
         <v>9</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9">
+      <c r="D13" s="22">
+        <v>1703.95</v>
+      </c>
+      <c r="E13" s="23">
+        <v>382.72</v>
+      </c>
+      <c r="F13" s="24">
+        <v>572.29999999999995</v>
+      </c>
+      <c r="G13" s="25">
+        <v>189.73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="18"/>
+      <c r="C14" s="26">
         <v>10</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="2:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13">
-        <f>AVERAGE(E5:E11)</f>
-        <v>3968.57</v>
-      </c>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
+      <c r="D14" s="27">
+        <v>1702.03</v>
+      </c>
+      <c r="E14" s="28">
+        <v>374.83</v>
+      </c>
+      <c r="F14" s="29">
+        <v>574.36</v>
+      </c>
+      <c r="G14" s="30">
+        <v>194.3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <f>AVERAGE(D5:D14)</f>
+        <v>1715.9389999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <f>AVERAGE(E5:E14)</f>
+        <v>380.27799999999996</v>
+      </c>
+      <c r="F15" s="3">
+        <f>AVERAGE(F5:F14)</f>
+        <v>573.28300000000002</v>
+      </c>
+      <c r="G15" s="4">
+        <f>AVERAGE(G5:G14)</f>
+        <v>191.60500000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="19"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="19"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="19"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="19"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C18:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>